--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdnf-Gfra1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdnf</t>
+  </si>
+  <si>
+    <t>Gfra1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdnf</t>
-  </si>
-  <si>
-    <t>Gfra1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H2">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I2">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J2">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N2">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O2">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P2">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q2">
-        <v>0.02760753032</v>
+        <v>0.02691554083077777</v>
       </c>
       <c r="R2">
-        <v>0.24846777288</v>
+        <v>0.242239867477</v>
       </c>
       <c r="S2">
-        <v>0.0004279205619794358</v>
+        <v>0.0006287174170004316</v>
       </c>
       <c r="T2">
-        <v>0.0006969427458023035</v>
+        <v>0.0009799044833193019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H3">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I3">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J3">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>30.440863</v>
       </c>
       <c r="O3">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P3">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q3">
-        <v>2.191444492006222</v>
+        <v>2.699959108421222</v>
       </c>
       <c r="R3">
-        <v>19.723000428056</v>
+        <v>24.299631975791</v>
       </c>
       <c r="S3">
-        <v>0.03396769459985662</v>
+        <v>0.06306807384350546</v>
       </c>
       <c r="T3">
-        <v>0.05532227344601356</v>
+        <v>0.09829644708812221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2159706666666667</v>
+        <v>0.2660856666666667</v>
       </c>
       <c r="H4">
-        <v>0.647912</v>
+        <v>0.798257</v>
       </c>
       <c r="I4">
-        <v>0.05773722394873236</v>
+        <v>0.0824022153898117</v>
       </c>
       <c r="J4">
-        <v>0.08136311778596961</v>
+        <v>0.1187122470109165</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N4">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O4">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P4">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q4">
-        <v>1.505896723730667</v>
+        <v>0.8007836164478332</v>
       </c>
       <c r="R4">
-        <v>9.035380342384</v>
+        <v>4.804701698686999</v>
       </c>
       <c r="S4">
-        <v>0.0233416087868963</v>
+        <v>0.0187054241293058</v>
       </c>
       <c r="T4">
-        <v>0.02534390159415374</v>
+        <v>0.01943589543947502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H5">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I5">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J5">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.12783</v>
+        <v>0.1011536666666667</v>
       </c>
       <c r="N5">
-        <v>0.38349</v>
+        <v>0.303461</v>
       </c>
       <c r="O5">
-        <v>0.007411519513986452</v>
+        <v>0.007629860605400263</v>
       </c>
       <c r="P5">
-        <v>0.008565831359064333</v>
+        <v>0.008254451482408482</v>
       </c>
       <c r="Q5">
-        <v>0.03401373077</v>
+        <v>0.2997205902908333</v>
       </c>
       <c r="R5">
-        <v>0.30612357693</v>
+        <v>1.798323541745</v>
       </c>
       <c r="S5">
-        <v>0.0005272175604773773</v>
+        <v>0.007001143188399832</v>
       </c>
       <c r="T5">
-        <v>0.000858665104884474</v>
+        <v>0.007274546999089181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H6">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I6">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J6">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>30.440863</v>
       </c>
       <c r="O6">
-        <v>0.5883153410704013</v>
+        <v>0.7653686681256785</v>
       </c>
       <c r="P6">
-        <v>0.6799428899903026</v>
+        <v>0.8280227993585454</v>
       </c>
       <c r="Q6">
-        <v>2.699959108421222</v>
+        <v>30.06565399613917</v>
       </c>
       <c r="R6">
-        <v>24.299631975791</v>
+        <v>180.393923976835</v>
       </c>
       <c r="S6">
-        <v>0.04184974192204766</v>
+        <v>0.702300594282173</v>
       </c>
       <c r="T6">
-        <v>0.0681595525846017</v>
+        <v>0.7297263522704233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2660856666666667</v>
+        <v>2.9630225</v>
       </c>
       <c r="H7">
-        <v>0.798257</v>
+        <v>5.926045</v>
       </c>
       <c r="I7">
-        <v>0.071134881245668</v>
+        <v>0.9175977846101883</v>
       </c>
       <c r="J7">
-        <v>0.1002430550977212</v>
+        <v>0.8812877529890836</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.972691</v>
+        <v>3.0094955</v>
       </c>
       <c r="N7">
-        <v>13.945382</v>
+        <v>6.018991</v>
       </c>
       <c r="O7">
-        <v>0.4042731394156123</v>
+        <v>0.2270014712689213</v>
       </c>
       <c r="P7">
-        <v>0.3114912786506331</v>
+        <v>0.1637227491590462</v>
       </c>
       <c r="Q7">
-        <v>1.855333133195667</v>
+        <v>8.91720288014875</v>
       </c>
       <c r="R7">
-        <v>11.131998799174</v>
+        <v>35.668811520595</v>
       </c>
       <c r="S7">
-        <v>0.02875792176314296</v>
+        <v>0.2082960471396154</v>
       </c>
       <c r="T7">
-        <v>0.03122483740823504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.258523</v>
-      </c>
-      <c r="H8">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J8">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.12783</v>
-      </c>
-      <c r="N8">
-        <v>0.38349</v>
-      </c>
-      <c r="O8">
-        <v>0.007411519513986452</v>
-      </c>
-      <c r="P8">
-        <v>0.008565831359064333</v>
-      </c>
-      <c r="Q8">
-        <v>0.41653699509</v>
-      </c>
-      <c r="R8">
-        <v>2.49922197054</v>
-      </c>
-      <c r="S8">
-        <v>0.006456381391529639</v>
-      </c>
-      <c r="T8">
-        <v>0.007010223508377556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>3.258523</v>
-      </c>
-      <c r="H9">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J9">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.14695433333333</v>
-      </c>
-      <c r="N9">
-        <v>30.440863</v>
-      </c>
-      <c r="O9">
-        <v>0.5883153410704013</v>
-      </c>
-      <c r="P9">
-        <v>0.6799428899903026</v>
-      </c>
-      <c r="Q9">
-        <v>33.06408407511633</v>
-      </c>
-      <c r="R9">
-        <v>198.384504450698</v>
-      </c>
-      <c r="S9">
-        <v>0.512497904548497</v>
-      </c>
-      <c r="T9">
-        <v>0.5564610639596873</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>3.258523</v>
-      </c>
-      <c r="H10">
-        <v>6.517046000000001</v>
-      </c>
-      <c r="I10">
-        <v>0.8711278948055996</v>
-      </c>
-      <c r="J10">
-        <v>0.8183938271163091</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>6.972691</v>
-      </c>
-      <c r="N10">
-        <v>13.945382</v>
-      </c>
-      <c r="O10">
-        <v>0.4042731394156123</v>
-      </c>
-      <c r="P10">
-        <v>0.3114912786506331</v>
-      </c>
-      <c r="Q10">
-        <v>22.720673995393</v>
-      </c>
-      <c r="R10">
-        <v>90.88269598157201</v>
-      </c>
-      <c r="S10">
-        <v>0.352173608865573</v>
-      </c>
-      <c r="T10">
-        <v>0.2549225396482443</v>
+        <v>0.1442868537195712</v>
       </c>
     </row>
   </sheetData>
